--- a/BalanceSheet/SIVB_bal.xlsx
+++ b/BalanceSheet/SIVB_bal.xlsx
@@ -3903,7 +3903,7 @@
         <v>-5848448000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-6197783000.0</v>
+        <v>-6371796000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>-6248969000.0</v>
@@ -4030,7 +4030,7 @@
         <v>3713000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>584000000.0</v>
+        <v>409987000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>697227000.0</v>
